--- a/biology/Microbiologie/Hydrogenophilales/Hydrogenophilales.xlsx
+++ b/biology/Microbiologie/Hydrogenophilales/Hydrogenophilales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrogenophilales sont un ordre des Betaproteobacteria comprenant une seule famille : les Hydrogenophilaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrogenophilales sont un ordre des Betaproteobacteria comprenant une seule famille : les Hydrogenophilaceae.
 </t>
         </is>
       </c>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cet ordre est le suivant : Hy.dro.ge.no.phi.la’les. N.L. masc. n. Hydrogenophilus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour décrire un ordre; N.L. fem. pl. n. Hydrogenophilales, l'ordre des Hydrogenophilus[1],[3].
-Historique
-Décrit en 2005 dans le Bergey's Manual of Systematic Bacteriology, l'ordre des Hydrogenophilales a été classé parmi les betaproteobactéries sur la base des analyses des séquences de l'ARNr 16S[1]. Il compte à cette date, la seule famille des Hydrogenophilaceae et deux genres bactériens, Hydrogenophilus (genre type de l'ordre) et Thiobacillus[1].
-En 2017, cet ordre est reclassé dans une nouvelle classe appelé Hydrogenophilalia avec le transfert du genre Thiobacillus dans l'ordre Nitrosomonadales[4]. Le nom de cette classe a été publié de manière valide mais il est illégitime  car il contrevient à la loi n°8 du code de nomenclature des procaryotes et doit être renommé[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est le suivant : Hy.dro.ge.no.phi.la’les. N.L. masc. n. Hydrogenophilus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour décrire un ordre; N.L. fem. pl. n. Hydrogenophilales, l'ordre des Hydrogenophilus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrogenophilales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrogenophilales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 2005 dans le Bergey's Manual of Systematic Bacteriology, l'ordre des Hydrogenophilales a été classé parmi les betaproteobactéries sur la base des analyses des séquences de l'ARNr 16S. Il compte à cette date, la seule famille des Hydrogenophilaceae et deux genres bactériens, Hydrogenophilus (genre type de l'ordre) et Thiobacillus.
+En 2017, cet ordre est reclassé dans une nouvelle classe appelé Hydrogenophilalia avec le transfert du genre Thiobacillus dans l'ordre Nitrosomonadales. Le nom de cette classe a été publié de manière valide mais il est illégitime  car il contrevient à la loi n°8 du code de nomenclature des procaryotes et doit être renommé.
 </t>
         </is>
       </c>
